--- a/result/Margine_Globale.xlsx
+++ b/result/Margine_Globale.xlsx
@@ -420,25 +420,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1126488.150334709</v>
+        <v>-171776.2503347092</v>
       </c>
       <c r="C2" t="n">
-        <v>-667665.2880112167</v>
+        <v>389471.9672055688</v>
       </c>
       <c r="D2" t="n">
-        <v>1794153.438345925</v>
+        <v>-561248.2175402778</v>
       </c>
       <c r="E2" t="n">
-        <v>-791158.4134236072</v>
+        <v>38393.6551398088</v>
       </c>
       <c r="F2" t="n">
-        <v>2585311.851769533</v>
+        <v>-599641.8726800866</v>
       </c>
       <c r="G2" t="n">
-        <v>966119.6245117182</v>
+        <v>-329104.9854222719</v>
       </c>
       <c r="H2" t="n">
-        <v>1619192.227257815</v>
+        <v>-270536.8872578149</v>
       </c>
     </row>
   </sheetData>
